--- a/Whammybar Requirement (2).xlsx
+++ b/Whammybar Requirement (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="5445" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="23955" windowHeight="5385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -365,7 +365,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -492,7 +492,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1207,7 +1207,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1284,7 +1284,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1506,7 +1506,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1945,7 +1945,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2410,7 +2410,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2615,7 +2615,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2853,7 +2853,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2964,7 +2964,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3088,7 +3088,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3470,7 +3470,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3581,7 +3581,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3692,7 +3692,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3863,7 +3863,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4195,7 +4195,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4319,7 +4319,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4430,7 +4430,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4801,7 +4801,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4925,7 +4925,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5036,7 +5036,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5210,7 +5210,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5334,7 +5334,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5458,7 +5458,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5574,7 +5574,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5670,16 +5670,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50986</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>14408</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5688,8 +5688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648636" y="241486"/>
-          <a:ext cx="1371600" cy="1349749"/>
+          <a:off x="5561320" y="2999978"/>
+          <a:ext cx="1599239" cy="2210761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5734,6 +5734,50 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -5741,18 +5785,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>user_name</a:t>
+            <a:t>user_name : String</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5785,126 +5818,18 @@
             </a:rPr>
             <a:t>password</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>facebookId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PhoneNumber</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>24652</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="528917" y="2005853"/>
-          <a:ext cx="1532966" cy="3047999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Product</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> _id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5925,21 +5850,26 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Name :</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> string</a:t>
-          </a:r>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>email : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5969,77 +5899,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Price:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> double</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description : string</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Image:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> string</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>quantity: int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PublishDate: time</a:t>
+            <a:t>role_name : Role._id</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -6055,111 +5915,79 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sale: </a:t>
+            <a:t>facebookId :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>phoneNumber : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>address</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>short</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>String</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Bargain: boolean</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>city : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>offerPrice:  double</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>zip_code : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>condition: String</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>brand: string</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>category:  int </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SellerId</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>: userId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gift_card_balance : float</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6167,26 +5995,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>185457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>48185</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14007</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>75249</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7241241" y="375957"/>
-          <a:ext cx="1547532" cy="1924050"/>
+          <a:off x="2094709" y="5950347"/>
+          <a:ext cx="1846569" cy="3047999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6227,647 +6055,52 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Permision</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>Product</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>id_permision</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>name_permision</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>description</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10365441" y="4986617"/>
-          <a:ext cx="2711824" cy="3283324"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>17927</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>141195</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16380757" y="1973917"/>
-          <a:ext cx="1622611" cy="2167778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Category</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> int</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>127746</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>131670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>69475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13448</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230099" y="1465170"/>
-          <a:ext cx="1622611" cy="2167778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ListBargan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>13444</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14527304" y="1050552"/>
-          <a:ext cx="1622611" cy="2167778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Category</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> int</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>87403</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3339351" y="2480421"/>
-          <a:ext cx="1622611" cy="2167778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>MessageBargain</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> _id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>productID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>offerPrice</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>contentMessage</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SendId: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ReceiverId: </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>82924</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>83485</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3249706" y="5782236"/>
-          <a:ext cx="1371600" cy="1349749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>user_name</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -6892,13 +6125,530 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+            </a:rPr>
+            <a:t>Name :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>password</a:t>
-          </a:r>
+            <a:t>Price:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> double</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description : string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Image:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>quantity: int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sale: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ProductSale</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bargain: boolean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>offerPrice:  double</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>condition: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Language</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>brand: string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>category:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Category</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>makeFrom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : Language</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SellerId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Shop._id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>99189</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>143452</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7663160" y="3070178"/>
+          <a:ext cx="1557057" cy="719817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Role</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>role_name : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>100537</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>42266</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15732743" y="2320026"/>
+          <a:ext cx="1622611" cy="2167778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ListBargain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -6906,26 +6656,12 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>facebookId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PhoneNumber</a:t>
-          </a:r>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6933,16 +6669,397 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>135310</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>117345</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28020</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>122485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1966316" y="9611066"/>
+          <a:ext cx="2095822" cy="988919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Category</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : ObjectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>category_name : Language</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parent_category :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Category</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>167296</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>109024</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>185702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5546120" y="6388896"/>
+          <a:ext cx="1622610" cy="2178806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MessageBargain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>productId : Product._id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>offerPrice</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>contentMessage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SendId: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ReceiverId: </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>75249</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>167296</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6954,8 +7071,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2061883" y="3529853"/>
-          <a:ext cx="1277468" cy="34457"/>
+          <a:off x="3941278" y="7474347"/>
+          <a:ext cx="1604842" cy="3952"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6980,29 +7097,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>118782</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>154361</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>138160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>141675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102396</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvPr id="80" name="Straight Connector 79"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="1"/>
-          <a:endCxn id="3" idx="0"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1295400" y="916361"/>
-          <a:ext cx="2353236" cy="1089492"/>
+          <a:off x="6357425" y="5210739"/>
+          <a:ext cx="3515" cy="1178157"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7027,26 +7144,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>163606</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29136</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45385</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>87571</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>98776</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>119605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 29"/>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6887135" y="3648636"/>
-          <a:ext cx="1371600" cy="1349749"/>
+          <a:off x="4794042" y="9420487"/>
+          <a:ext cx="1523999" cy="1367118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7087,18 +7204,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Mess</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>_id</a:t>
+            <a:t>Language</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7113,18 +7219,212 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>UserID:</a:t>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>objectId</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>type : String </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>english : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Content:</a:t>
+            <a:t>japanese : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vietnamese : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>97650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>46352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>39379</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493532" y="7856852"/>
+          <a:ext cx="1622612" cy="2167778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductSale</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Produc._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>isOnSale : boolean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sale_startDay :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sale_endDay : Date</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7135,38 +7435,2850 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>116539</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142473</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>132230</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3921</xdr:rowOff>
+      <xdr:rowOff>38427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1823355" y="1562427"/>
+          <a:ext cx="1862578" cy="1145401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Feedback</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>feedbackFrom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : User._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>feedBackTo : Shop._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>feedback_content : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>feedback_value : int</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>35066</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901095" y="4687108"/>
+          <a:ext cx="1613801" cy="1131951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shopping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_id : ObjectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>productId : Product._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>quantity: int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>userId : User._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>isOffer : boolean</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>146481</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>157688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>124868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11240305" y="5234750"/>
+          <a:ext cx="1524001" cy="1367118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RequestCancelOrder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_id : Order._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>isAccept : boolean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>content</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2098702" y="3126445"/>
+          <a:ext cx="1835363" cy="1580030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sellerId : User._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopDescription : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopBanner : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shop_address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>membership : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Membership</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shop_rank</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>108878</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>28356</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8513290" y="5062984"/>
+          <a:ext cx="1768448" cy="1718982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_id : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>objectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>productId : Product._id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BuyerId : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>User._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ship_to : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order_status :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rderStatus</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order_quantity : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order_price</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : float</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>feedback</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Feedback</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161128</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1209</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Straight Connector 79"/>
+        <xdr:cNvPr id="67" name="Straight Connector 66"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="15" idx="0"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4150657" y="1591235"/>
-          <a:ext cx="183779" cy="889186"/>
+          <a:off x="3018628" y="8998346"/>
+          <a:ext cx="8169" cy="612720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28020</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>7546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>87571</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4062138" y="10104046"/>
+          <a:ext cx="731904" cy="1480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>141674</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>37276</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22179</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Elbow Connector 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7366214" y="1994704"/>
+          <a:ext cx="70200" cy="2080749"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -325641"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>129994</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>141200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7525876" y="1279396"/>
+          <a:ext cx="1524000" cy="1367118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AccountManger</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_id :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> User._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>isActive : boolean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>banFrom : Date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>banTo : Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>46286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>44044</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9795404" y="4109202"/>
+          <a:ext cx="1006287" cy="1179979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OrderStatus</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;&lt;enum&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pending</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Shipped</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Delivered</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>152662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109984</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Elbow Connector 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7800225" y="3465694"/>
+          <a:ext cx="957625" cy="2236955"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3934065" y="3916460"/>
+          <a:ext cx="1579229" cy="5603"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158884</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160494</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3016384" y="4706475"/>
+          <a:ext cx="1610" cy="1243872"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30584</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>153687</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rectangle 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3560437" y="8015571"/>
+          <a:ext cx="1299721" cy="1290919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ProductCondition</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;&lt;enum&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Excellent (New)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Good (New)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Excellent (Used)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Good </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Used)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66441</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>108878</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Elbow Connector 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3932470" y="5922475"/>
+          <a:ext cx="4580820" cy="1419782"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83541"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>5927</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Elbow Connector 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4886015" y="3958177"/>
+          <a:ext cx="555315" cy="902550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88854</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>35066</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Elbow Connector 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3282530" y="5253084"/>
+          <a:ext cx="618565" cy="675630"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Elbow Connector 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3685933" y="2135128"/>
+          <a:ext cx="1872185" cy="1181817"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47605"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106460</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Elbow Connector 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="1823354" y="2135128"/>
+          <a:ext cx="275347" cy="1781332"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83023"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>97650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Elbow Connector 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3934064" y="7792095"/>
+          <a:ext cx="3559468" cy="1148646"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36191"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>28356</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>146481</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Connector 155"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10281738" y="5918309"/>
+          <a:ext cx="958567" cy="4166"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>129994</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Elbow Connector 163"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6091997" y="1962955"/>
+          <a:ext cx="1433879" cy="1025818"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100654"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>46913</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1928</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Rectangle 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5930001" y="10453972"/>
+          <a:ext cx="1299721" cy="1290919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89652</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31381</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="Rectangle 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="425828" y="4499891"/>
+          <a:ext cx="1622612" cy="720454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Membership</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_id : ObjectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>member_type : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60518</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="Elbow Connector 184"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="183" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1237136" y="4267845"/>
+          <a:ext cx="875174" cy="232046"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65232</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>152661</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="Elbow Connector 238"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+          <a:endCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3466309" y="850761"/>
+          <a:ext cx="5219539" cy="6642870"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6957"/>
+            <a:gd name="adj2" fmla="val 160003"/>
+            <a:gd name="adj3" fmla="val 104380"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>78927</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>20655</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="Rectangle 247"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617309" y="67643"/>
+          <a:ext cx="1622611" cy="1008122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Report</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_id : objectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>reportFrom : User._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>reportTo : Shop._id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>report_content : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56516</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="Elbow Connector 254"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3821207" y="582909"/>
+          <a:ext cx="773691" cy="2554737"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>49790</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="Elbow Connector 256"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="248" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4692146" y="1812233"/>
+          <a:ext cx="1927410" cy="454473"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42442"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -8933,7 +12045,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8950,9 +12062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB14" sqref="BB14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
